--- a/theater/theater.xlsx
+++ b/theater/theater.xlsx
@@ -8,7 +8,7 @@
   </bookViews>
   <sheets>
     <sheet name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="241001_10" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="241002" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -432,14 +432,243 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A1"/>
+  <dimension ref="A1:D18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>10/극한직업</t>
+        </is>
+      </c>
+      <c r="B1" t="n">
+        <v>0</v>
+      </c>
+      <c r="C1" t="n">
+        <v>0</v>
+      </c>
+      <c r="D1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="B2" t="n">
+        <v>1</v>
+      </c>
+      <c r="C2" t="n">
+        <v>1</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="B3" t="n">
+        <v>0</v>
+      </c>
+      <c r="C3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>12/대도시의 사랑법</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>0</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="B5" t="n">
+        <v>0</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="B6" t="n">
+        <v>0</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>14/베테랑2</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>0</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="B8" t="n">
+        <v>0</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="B9" t="n">
+        <v>0</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>16/6시간 후 너는 죽는다</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>0</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="B11" t="n">
+        <v>0</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="B12" t="n">
+        <v>0</v>
+      </c>
+      <c r="C12" t="n">
+        <v>0</v>
+      </c>
+      <c r="D12" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>18/베테랑2</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>0</v>
+      </c>
+      <c r="C13" t="n">
+        <v>0</v>
+      </c>
+      <c r="D13" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="B14" t="n">
+        <v>0</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0</v>
+      </c>
+      <c r="D14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="B15" t="n">
+        <v>0</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0</v>
+      </c>
+      <c r="D15" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>20/대도시의 사랑법</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>0</v>
+      </c>
+      <c r="C16" t="n">
+        <v>0</v>
+      </c>
+      <c r="D16" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="B17" t="n">
+        <v>0</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0</v>
+      </c>
+      <c r="D17" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="B18" t="n">
+        <v>0</v>
+      </c>
+      <c r="C18" t="n">
+        <v>0</v>
+      </c>
+      <c r="D18" t="n">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/theater/theater.xlsx
+++ b/theater/theater.xlsx
@@ -450,10 +450,10 @@
         <v>0</v>
       </c>
       <c r="C1" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D1" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2">
@@ -464,7 +464,7 @@
         <v>1</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3">
@@ -502,7 +502,7 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6">
@@ -526,7 +526,7 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -540,7 +540,7 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9">
@@ -578,7 +578,7 @@
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12">

--- a/theater/theater.xlsx
+++ b/theater/theater.xlsx
@@ -502,7 +502,7 @@
         <v>1</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6">
